--- a/codes/Form/batsman_data_Smat_form_score.xlsx
+++ b/codes/Form/batsman_data_Smat_form_score.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/codes/Form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D36B5CF-EA31-3D40-AB05-6D1A4F3C73E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8F49B1-882F-2F4B-80D4-B8836337472A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="2760" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Player</t>
   </si>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>V Suryavanshi</t>
+  </si>
+  <si>
+    <t>JP Inglis</t>
+  </si>
+  <si>
+    <t>MP Breetzke</t>
+  </si>
+  <si>
+    <t>RD Rickelton</t>
+  </si>
+  <si>
+    <t>BJ Jacobs</t>
   </si>
 </sst>
 </file>
@@ -155,7 +167,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,10 +201,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,33 +507,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="A2:T15"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -587,353 +579,353 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="F2" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2">
-        <v>42.5</v>
+        <v>24.44</v>
       </c>
       <c r="H2" s="2">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="I2" s="2">
-        <v>177.08</v>
+        <v>141.93</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="P2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="2">
         <v>1</v>
       </c>
       <c r="R2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S2" s="2">
         <v>36</v>
       </c>
       <c r="T2" s="2">
-        <v>51.304049159999998</v>
+        <v>41.720768278000001</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>213</v>
-      </c>
-      <c r="F3" s="2">
-        <v>72</v>
-      </c>
-      <c r="G3" s="2">
-        <v>42.6</v>
-      </c>
-      <c r="H3" s="2">
-        <v>121</v>
-      </c>
       <c r="I3" s="2">
-        <v>176.03</v>
+        <v>85.71</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="P3" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="2">
         <v>1</v>
       </c>
       <c r="R3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="T3" s="2">
-        <v>47.602243429999987</v>
+        <v>12.79110217</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="F4" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G4" s="2">
-        <v>36.28</v>
+        <v>49.25</v>
       </c>
       <c r="H4" s="2">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="I4" s="2">
-        <v>138.04</v>
+        <v>148.12</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N4" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="P4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="2">
         <v>1</v>
       </c>
       <c r="R4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="T4" s="2">
-        <v>45.002646695999992</v>
+        <v>43.06691739</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="F5" s="2">
         <v>77</v>
       </c>
       <c r="G5" s="2">
-        <v>49.25</v>
+        <v>42.5</v>
       </c>
       <c r="H5" s="2">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="I5" s="2">
-        <v>148.12</v>
+        <v>177.08</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N5" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="P5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="2">
         <v>1</v>
       </c>
       <c r="R5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S5" s="2">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="T5" s="2">
-        <v>43.06691739</v>
+        <v>51.304049159999998</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="F6" s="2">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2">
-        <v>101</v>
+        <v>42.6</v>
       </c>
       <c r="H6" s="2">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="I6" s="2">
-        <v>157.81</v>
+        <v>176.03</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N6" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="P6" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="2">
         <v>1</v>
       </c>
       <c r="R6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="T6" s="2">
-        <v>41.74553117</v>
+        <v>47.602243429999987</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="F7" s="2">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="G7" s="2">
-        <v>24.44</v>
+        <v>36.28</v>
       </c>
       <c r="H7" s="2">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="I7" s="2">
-        <v>141.93</v>
+        <v>138.04</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N7" s="2">
         <v>9</v>
@@ -942,172 +934,172 @@
         <v>21</v>
       </c>
       <c r="P7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="2">
         <v>1</v>
       </c>
       <c r="R7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S7" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="T7" s="2">
-        <v>41.720768278000001</v>
+        <v>45.002646695999992</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2">
+        <v>14.66</v>
+      </c>
+      <c r="H8" s="2">
         <v>29</v>
       </c>
-      <c r="B8" s="2">
+      <c r="I8" s="2">
+        <v>151.72</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>5</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>67</v>
-      </c>
-      <c r="F8" s="2">
-        <v>36</v>
-      </c>
-      <c r="G8" s="2">
-        <v>16.75</v>
-      </c>
-      <c r="H8" s="2">
-        <v>37</v>
-      </c>
-      <c r="I8" s="2">
-        <v>181.08</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2">
-        <v>8</v>
-      </c>
-      <c r="N8" s="2">
-        <v>3</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>11</v>
-      </c>
       <c r="T8" s="2">
-        <v>32.362260810000002</v>
+        <v>25.925061092</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="F9" s="2">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2">
-        <v>13</v>
+        <v>20.25</v>
       </c>
       <c r="H9" s="2">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="I9" s="2">
-        <v>216.66</v>
+        <v>117.39</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N9" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="P9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="2">
         <v>1</v>
       </c>
       <c r="R9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T9" s="2">
-        <v>31.707019119999998</v>
+        <v>25.289771080000001</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F10" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2">
-        <v>14.66</v>
+        <v>16.75</v>
       </c>
       <c r="H10" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I10" s="2">
-        <v>151.72</v>
+        <v>181.08</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -1116,93 +1108,93 @@
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="P10" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q10" s="2">
-        <v>0.5</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T10" s="2">
-        <v>25.925061092</v>
+        <v>32.362260810000002</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>101</v>
+      </c>
+      <c r="F11" s="2">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2">
+        <v>101</v>
+      </c>
+      <c r="H11" s="2">
+        <v>64</v>
+      </c>
+      <c r="I11" s="2">
+        <v>157.81</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>11</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="2">
         <v>5</v>
       </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>81</v>
-      </c>
-      <c r="F11" s="2">
-        <v>55</v>
-      </c>
-      <c r="G11" s="2">
-        <v>20.25</v>
-      </c>
-      <c r="H11" s="2">
-        <v>69</v>
-      </c>
-      <c r="I11" s="2">
-        <v>117.39</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2">
-        <v>5</v>
-      </c>
-      <c r="N11" s="2">
-        <v>5</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="2">
-        <v>4</v>
-      </c>
       <c r="Q11" s="2">
         <v>1</v>
       </c>
       <c r="R11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T11" s="2">
-        <v>25.289771080000001</v>
+        <v>41.74553117</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -1269,31 +1261,31 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13" s="2">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="H13" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I13" s="2">
-        <v>85.71</v>
+        <v>57.69</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -1302,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -1323,39 +1315,39 @@
         <v>0</v>
       </c>
       <c r="S13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T13" s="2">
-        <v>12.79110217</v>
+        <v>9.5501072799999989</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>-26</v>
       </c>
       <c r="E14" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>57.69</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -1364,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -1376,87 +1368,332 @@
         <v>21</v>
       </c>
       <c r="P14" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
       </c>
       <c r="S14" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T14" s="2">
-        <v>9.5501072799999989</v>
+        <v>-2.2419851999999998</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2">
+        <v>216.66</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>2</v>
+      </c>
+      <c r="T15" s="2">
+        <v>31.707019119999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>53</v>
+      </c>
+      <c r="F16" s="2">
+        <v>49</v>
+      </c>
+      <c r="G16" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>41</v>
+      </c>
+      <c r="I16" s="2">
+        <v>129.26</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>3</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>5</v>
+      </c>
+      <c r="T16" s="2">
+        <v>24.88298022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>117</v>
+      </c>
+      <c r="F17" s="2">
         <v>33</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="2">
+      <c r="G17" s="2">
+        <v>16.71</v>
+      </c>
+      <c r="H17" s="2">
+        <v>113</v>
+      </c>
+      <c r="I17" s="2">
+        <v>103.53</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>11</v>
+      </c>
+      <c r="N17" s="2">
+        <v>3</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>14</v>
+      </c>
+      <c r="T17" s="2">
+        <v>25.942278960888888</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>336</v>
+      </c>
+      <c r="F18" s="2">
+        <v>89</v>
+      </c>
+      <c r="G18" s="2">
+        <v>48</v>
+      </c>
+      <c r="H18" s="2">
+        <v>188</v>
+      </c>
+      <c r="I18" s="2">
+        <v>178.72</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>3</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>33</v>
+      </c>
+      <c r="N18" s="2">
+        <v>20</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2">
+        <v>3</v>
+      </c>
+      <c r="S18" s="2">
+        <v>53</v>
+      </c>
+      <c r="T18" s="2">
+        <v>59.742237239999987</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>26</v>
+      </c>
+      <c r="F19" s="2">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2">
+        <v>13</v>
+      </c>
+      <c r="H19" s="2">
+        <v>27</v>
+      </c>
+      <c r="I19" s="2">
+        <v>96.29</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>2</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="2">
         <v>5</v>
       </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0</v>
+      <c r="Q19" s="2">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
+        <v>3</v>
+      </c>
+      <c r="T19" s="2">
+        <v>16.785566630000002</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T15">
-    <sortCondition descending="1" ref="T1:T15"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>